--- a/moving_average/data/ADANIGREEN.xlsx
+++ b/moving_average/data/ADANIGREEN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="9">
   <si>
     <t>index</t>
   </si>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5886,6 +5886,35 @@
         <v>1360.111363636364</v>
       </c>
     </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>188</v>
+      </c>
+      <c r="C190" s="2">
+        <v>44571</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190">
+        <v>1405</v>
+      </c>
+      <c r="F190">
+        <v>1453</v>
+      </c>
+      <c r="G190">
+        <v>1405</v>
+      </c>
+      <c r="H190">
+        <v>1438.9</v>
+      </c>
+      <c r="I190">
+        <v>1364.950000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
